--- a/Assessment/Defect management_Assesment.xlsx
+++ b/Assessment/Defect management_Assesment.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Top's\Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2E162-8844-4D18-BABE-DE74BBDC3931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D75E702-C9BD-4A50-894B-AC7AFF244376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E38EE9AC-C96F-40D5-A786-6E5E72B5F8AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{E38EE9AC-C96F-40D5-A786-6E5E72B5F8AA}"/>
   </bookViews>
   <sheets>
     <sheet name="To cover reels funtionality" sheetId="1" r:id="rId1"/>
     <sheet name="To cover create story functiona" sheetId="2" r:id="rId2"/>
     <sheet name="IGTV &amp; live functionality" sheetId="3" r:id="rId3"/>
     <sheet name="Defect Report" sheetId="4" r:id="rId4"/>
+    <sheet name="Flipkart( Scenarios)" sheetId="5" r:id="rId5"/>
+    <sheet name="Flipkart(Test Case)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="322">
   <si>
     <t>Test_ID</t>
   </si>
@@ -703,13 +705,304 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1JnRMJ2qu-qnw-b5ST03-mKJCNg2Td9jl/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Positive Scenarios</t>
+  </si>
+  <si>
+    <t>Negative Scenarios</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Login Funtionlity</t>
+  </si>
+  <si>
+    <t>Verify the user should open the website by using url</t>
+  </si>
+  <si>
+    <t>Verify the user should open the multiple website by using same url</t>
+  </si>
+  <si>
+    <t>Verify after open the url login page load sucessfully</t>
+  </si>
+  <si>
+    <t>Verify open the url in multiple browser login page load sucessfully</t>
+  </si>
+  <si>
+    <t>Verify when user using the mobile number to login successfully</t>
+  </si>
+  <si>
+    <t>Verify when user using the wrong mobile number to login toast on error message</t>
+  </si>
+  <si>
+    <t>Verify when user invalid email id to see on error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when user click on without entering mobile number to send a request </t>
+  </si>
+  <si>
+    <t>Verify when user enter valid mobile number to send the request</t>
+  </si>
+  <si>
+    <t>Verify when user using the 10 digit mobile number to send the request succesfuuly</t>
+  </si>
+  <si>
+    <t>Verify when user using more than 10 digit or less than 10 digit mobile number to see an error message.</t>
+  </si>
+  <si>
+    <t>Verify when user enter valid email id to send a request in register email id</t>
+  </si>
+  <si>
+    <t>Verify when user enter the name in mobile number text field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when user enter special charater to sending the request </t>
+  </si>
+  <si>
+    <t>Verify when user using register mobile number in multiple device to login</t>
+  </si>
+  <si>
+    <t>Verify when using correct otp to login</t>
+  </si>
+  <si>
+    <t>Verify when using expire password to login</t>
+  </si>
+  <si>
+    <t>Verify when enter failed login attempt, enter incorrect data in multiple times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when user login one device </t>
+  </si>
+  <si>
+    <t>Verify when user login another or 2,3 device.</t>
+  </si>
+  <si>
+    <t>Add to cart Funtionlity</t>
+  </si>
+  <si>
+    <t>Filpkart scenarios</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Positive scenarios</t>
+  </si>
+  <si>
+    <t>Verify the add to cart feature proper visible in website</t>
+  </si>
+  <si>
+    <t>verify when add to cart spelling is right</t>
+  </si>
+  <si>
+    <t>Verify when user add item to the cart</t>
+  </si>
+  <si>
+    <t>Verify when user add multiple item in add to cart</t>
+  </si>
+  <si>
+    <t>Verify when user add same item in more than 20 pics in add to cart</t>
+  </si>
+  <si>
+    <t>Verify when user remove add to cart item</t>
+  </si>
+  <si>
+    <t>Verify when user remove add to cart item in one by one or remove all item</t>
+  </si>
+  <si>
+    <t>Verify when user cancel to remove item</t>
+  </si>
+  <si>
+    <t>Verify when user not add any item and click on add to cart funtionlity</t>
+  </si>
+  <si>
+    <t>Verify user add single item to the cart</t>
+  </si>
+  <si>
+    <t>Verify when user increase product quantity to cart</t>
+  </si>
+  <si>
+    <t>Verify when user decrease product quantity to cart</t>
+  </si>
+  <si>
+    <t>Verify check cart total price calculation</t>
+  </si>
+  <si>
+    <t>Verify cart persistence after logout and login</t>
+  </si>
+  <si>
+    <t>Verify Add Out-of-Stock Product to Wishlist Instead of Cart</t>
+  </si>
+  <si>
+    <t>Verify Proceed to Checkout After Adding to Cart</t>
+  </si>
+  <si>
+    <t>Verify Cart Items Display on Different Devices</t>
+  </si>
+  <si>
+    <t>Verify Add to Cart Without Logging In</t>
+  </si>
+  <si>
+    <t>Verify Add an Out-of-Stock Product</t>
+  </si>
+  <si>
+    <t>Verify Add a Discontinued Product</t>
+  </si>
+  <si>
+    <t>Verify Add More Quantity Than Available Stock</t>
+  </si>
+  <si>
+    <t>Verify Network Disconnection During Add to Cart</t>
+  </si>
+  <si>
+    <t>Verify Cart Not Updating After Adding Product</t>
+  </si>
+  <si>
+    <t>Verify Adding Restricted or Banned Items</t>
+  </si>
+  <si>
+    <t>Verify Adding to Cart from an Expired Session</t>
+  </si>
+  <si>
+    <t>Checkout with an Empty Cart</t>
+  </si>
+  <si>
+    <t>Verify Cart Items Missing After Refresh</t>
+  </si>
+  <si>
+    <t>Verify when network disconnect and increase the quantity</t>
+  </si>
+  <si>
+    <t>Verify when product decrease without add to cart</t>
+  </si>
+  <si>
+    <t>Verify the without adding to cart product price calculation</t>
+  </si>
+  <si>
+    <t>GUI Funtionality Scenarios</t>
+  </si>
+  <si>
+    <t>Verify open the app load within few seconds and displaying the home screen.</t>
+  </si>
+  <si>
+    <t>Verify all element like menu, image, text are properly aligned and responsive.</t>
+  </si>
+  <si>
+    <t>Verify the sign-up and login UI screen to properly placed input fields, buttons, and validation message.</t>
+  </si>
+  <si>
+    <t>Verify open the product page and check product images, name, price, review etc.</t>
+  </si>
+  <si>
+    <t>Verify all the details are display correctly with readable fonts and high - quality images.</t>
+  </si>
+  <si>
+    <t>Verify check the bottom navigation bar like home, categories, search, cart, profile etc.</t>
+  </si>
+  <si>
+    <t>Verify all the categoies are properly visible and clickable.</t>
+  </si>
+  <si>
+    <t>Verify the search bar Ui and funtionlity</t>
+  </si>
+  <si>
+    <t>Verify tap on the search bar, type of product name, and check the suggesstion.</t>
+  </si>
+  <si>
+    <t>Verify add a product to the cart and proceed to checkout.</t>
+  </si>
+  <si>
+    <t>Verify the button are correctly position and function work smoothly.</t>
+  </si>
+  <si>
+    <t>Verify all filters and sorting UI.</t>
+  </si>
+  <si>
+    <t>Verify apply filters, price, brand and sort product to correctly showing filtered results.</t>
+  </si>
+  <si>
+    <t>Verify the app are supported in dark mode</t>
+  </si>
+  <si>
+    <t>Verify the enable the dark mode on the devices and check the app's UI.</t>
+  </si>
+  <si>
+    <t>Verify UI should be adjust correctly to dark mode without visibility issues.</t>
+  </si>
+  <si>
+    <t>Verify the order tracking UI proper visible in mobile device and website.</t>
+  </si>
+  <si>
+    <t>Verify the order tracking details</t>
+  </si>
+  <si>
+    <t>Verify the my order page for an ongoing order.</t>
+  </si>
+  <si>
+    <t>Verify proper progress indicators for shipment , delivery etc.</t>
+  </si>
+  <si>
+    <t>Verify try to opening a page with a slow internet connection.</t>
+  </si>
+  <si>
+    <t>Verify UI should load properly without missing images or text.</t>
+  </si>
+  <si>
+    <t>Verify the reduce screen size ( small device) and check UI.</t>
+  </si>
+  <si>
+    <t>Verify text and image should be remain properly aligned.</t>
+  </si>
+  <si>
+    <t>Verify check the readability in different lighting conditions.</t>
+  </si>
+  <si>
+    <t>Verify try trapping on a button multiples times.</t>
+  </si>
+  <si>
+    <t>Verify button should be respond and not freeze.</t>
+  </si>
+  <si>
+    <t>Verify navigate quickly between multiples times.</t>
+  </si>
+  <si>
+    <t>verify app should remain smooth without lagging or freezing.</t>
+  </si>
+  <si>
+    <t>Verify image should be load successfully or not be cut off.</t>
+  </si>
+  <si>
+    <t>Verify check the dark mode and check text visiblity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify text and icons should remain clearly visible without blending into the background. </t>
+  </si>
+  <si>
+    <t>Verify seach bar disappears after typing.</t>
+  </si>
+  <si>
+    <t>Verify search bar should remain visible and active.</t>
+  </si>
+  <si>
+    <t>Verify buttons should be easily accessible and not overlap with others UI elements.</t>
+  </si>
+  <si>
+    <t>Verify UI should be adjust dark mode and light mode for changing the users needs</t>
+  </si>
+  <si>
+    <t>Verify when user not order any product to UI design proper visible or not</t>
+  </si>
+  <si>
+    <t>Verify when user not order any product to track the order details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,6 +1066,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -830,19 +1146,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -861,6 +1168,41 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1179,7 +1521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39146BE-F1C2-483E-8576-763280EB107C}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1196,706 +1538,706 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>2.1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6.1</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>6.1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>6.2</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>6.2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>6.3</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>6.3</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>7.1</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>7.1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>7.2</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>7.2</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>11</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>12</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>14</v>
       </c>
-      <c r="B20" s="6">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="3">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>15</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="G21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>16</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="G22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1927,386 +2269,386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2386,290 +2728,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>4.21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>4.2</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>4.2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2703,533 +3045,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>6.3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>6.3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>7.2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>7.2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6" t="s">
+      <c r="N9" s="2"/>
+      <c r="O9" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>11</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2">
         <v>4.2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>4.2</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3242,4 +3584,610 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E47A2D-67EF-4DF0-858A-B05B76C47C4E}">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>7</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>8</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>9</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>10</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>3</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>5</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>6</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>8</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>10</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>11</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>12</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
+        <v>13</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <v>14</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>15</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>16</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="21"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
+        <v>17</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="21"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>1</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>2</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="21">
+        <v>3</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
+        <v>4</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>5</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>6</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>7</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
+        <v>8</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
+        <v>9</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>10</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>11</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
+        <v>12</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="21">
+        <v>13</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
+        <v>14</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
+        <v>15</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="21">
+        <v>16</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
+        <v>17</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="21">
+        <v>18</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="21">
+        <v>19</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C55" s="21"/>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
+        <v>20</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A35:C35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F6743B-2EE4-4069-A331-49FCD58711D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>